--- a/export/inputDSNCC.xlsx
+++ b/export/inputDSNCC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JAVA_SGU_24-25\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AA66A5-F938-4AEF-84B9-EFDAEC33F85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B609EE7D-916C-46DA-967C-258F8297F6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1500" windowWidth="14784" windowHeight="9624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Mã NCC</t>
   </si>
@@ -39,21 +39,12 @@
     <t>SĐT</t>
   </si>
   <si>
-    <t>NC008</t>
-  </si>
-  <si>
-    <t>Loopy</t>
-  </si>
-  <si>
     <t>123 An Dương Vương, Q5</t>
   </si>
   <si>
     <t>0934123456</t>
   </si>
   <si>
-    <t>NC012</t>
-  </si>
-  <si>
     <t>Bubu</t>
   </si>
   <si>
@@ -61,6 +52,51 @@
   </si>
   <si>
     <t>0932165478</t>
+  </si>
+  <si>
+    <t>Loopy Shoes</t>
+  </si>
+  <si>
+    <t>Fashion Sneakers</t>
+  </si>
+  <si>
+    <t>321 Võ Văn Tần</t>
+  </si>
+  <si>
+    <t>0931234560</t>
+  </si>
+  <si>
+    <t>Trendy Boots</t>
+  </si>
+  <si>
+    <t>654 Pastuer</t>
+  </si>
+  <si>
+    <t>0931237891</t>
+  </si>
+  <si>
+    <t>Classic Heels</t>
+  </si>
+  <si>
+    <t>987 Hai Bà Trưng</t>
+  </si>
+  <si>
+    <t>0931237871</t>
+  </si>
+  <si>
+    <t>NCC01</t>
+  </si>
+  <si>
+    <t>NCC02</t>
+  </si>
+  <si>
+    <t>NCC06</t>
+  </si>
+  <si>
+    <t>NCC07</t>
+  </si>
+  <si>
+    <t>NCC08</t>
   </si>
 </sst>
 </file>
@@ -96,10 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,14 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
     <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" customWidth="1"/>
   </cols>
@@ -408,30 +444,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" t="s">
         <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
